--- a/Data_processed/industry/building materials.xlsx
+++ b/Data_processed/industry/building materials.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:CW27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,495 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>..1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>..2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>human tox</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>metals</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>fossil tra</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>carbon</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ced</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>renewable</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.2</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>recipe2016</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>recipe</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.4</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.5</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>global warming,</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .1</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>stratospheric</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>ionizing</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation,</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>fine particulate</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation, .1</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>human .1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>human .2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>land use</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>mineral resource</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>fossil resource</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption, .1</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>ef 3.1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>acidification</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>climate change</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>particulate</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication, .1</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity,</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity, non-cancer</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>ionising radiation</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>land use.1</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>ozone depletion</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>photochemical ozone formation</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,.1</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>water use</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>traci</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>traci.1</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>traci.2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>traci.3</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>traci.4</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>traci.5</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>traci.6</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>traci.7</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>traci.8</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>traci.9</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>carbon</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>pollutants</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity.1</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>classyfire</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>chemicals,plastics, and wood</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>note:</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 107</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 110</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 118</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>source_file</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>region</t>
         </is>
@@ -478,18 +953,297 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>A.040.01.101</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, construction, binders </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Cement (blastfurnace CEM III B 42.5 N)</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>0.0748848021196</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.003091137018</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.008536590931799998</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0018888431698</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.061368231</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0059665696</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0022458479</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.002428211</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00059110861</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.9508257e-05</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5.2309151e-05</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.00032127785</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.00024281047</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.7373661e-06</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0016428603</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.1582157e-06</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3.1723998e-06</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0.40912154</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="Z2" t="n">
+        <v>3.5739869</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3.232609</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.19038645</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.038356121</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.072721812</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.039913557</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.008848660899999999</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0082931371</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.00034792011</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0002076037</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>4.9719048e-07</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.2866868e-09</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.029076149</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.7966481e-07</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.1455404e-09</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>3.12978e-14</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>4.1850111e-15</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>6.5177963e-11</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1.1739845e-07</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1.4852362e-11</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.2623057e-10</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.7888406e-17</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>7.1021073e-19</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>2.980395e-14</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1.9350365e-15</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>4.0282121e-16</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>3.4831205e-12</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>5.8548326e-11</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>4.0015109e-23</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>2.1138876e-05</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.02905501</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1.8342042e-05</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>8.7031794e-07</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1.1407394e-05</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>3.8800097e-08</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.2321502e-06</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>8.6137854e-11</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.1744272e-12</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1.2973143e-10</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>2.9060388e-08</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>4.9177125e-08</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>8.8488309e-20</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>7.2455488e-16</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>5.2065269e-07</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>4.1942559e-06</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1.6340984e-11</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>6.1327313e-16</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.40912155</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>3.5694342e-06</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.00059548108</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.00015255414</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.3844821e-11</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1.6552615e-09</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>5.0741839e-05</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.0016256934</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.40134788</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.061368231</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.011624832368</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.008536867749799998</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.008536590931799998</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.00188567077</v>
+      </c>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -508,18 +1262,297 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>A.040.01.102</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, construction, binders </t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Cement (Portland CEM I 52.5 N)</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>0.189298489804</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.015840577304</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0278009125</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.010207</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.13545</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01102365</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.013989778</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.012852</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00212129</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.0504104e-05</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0008267831999999999</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0027874845</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.010207</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>0.9029999999999999</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="Z3" t="n">
+        <v>4.0130628</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3.880781</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.000971354</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.03178926</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.09952122400000001</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.018939042</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.017887715</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.00076812544</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0002832021</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.0724049e-06</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2.8407006e-09</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.03966416</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>8.37984e-07</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>2.5284e-09</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>6.90795e-14</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>3.444e-10</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.334741e-07</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.853999999999999e-11</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>2.332e-10</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>4.7100948e-13</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1.6755089e-14</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>3.732364e-15</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1.82492e-11</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>5.842e-10</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00085635</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.03880781</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>3.8392206e-05</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1.6077513e-06</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2.5178036e-05</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>3.3279954e-07</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>3.2230846e-06</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>9.7367044e-08</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>6.615264e-07</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>2.5610938e-06</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>4.7305468e-06</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>1.4370755e-13</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.903</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.0009506952</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>2.1445062e-10</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>2.566061e-08</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.00012012221</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.014252456</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.53222139</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.13545</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.043641489804</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.0278009125</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.0278009125</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.010207</v>
+      </c>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -538,18 +1571,297 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>A.040.01.103</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, construction, binders </t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Gypsum</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>0.0219278812983</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00047358261474</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0023315508014</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0008027608821599999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.018319987</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.001827151</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.00030686643</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.00026856888</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.00017922099</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9.015447399999999e-07</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.48912e-05</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.336647e-05</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4361973e-05</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.00016966465</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.00078808528</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4.5022514e-06</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3.1362916e-07</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0.1221332466666667</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="Z4" t="n">
+        <v>1.3685633</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1.190604</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.0011952934</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.0074869691</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.16897873</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.00029831175</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.0026352241</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.0024616427</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.00010404625</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>6.953511500000001e-05</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.475805e-07</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>3.8478643e-10</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.009738811599999999</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.1334208e-07</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>3.4198033e-10</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>9.3433909e-15</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>4.0869249e-13</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1.8392306e-11</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.4207722e-08</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>3.0834832e-12</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>3.9693706e-11</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.6766021e-15</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>6.9356517e-17</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1.4181485e-14</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>5.1700285e-16</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1.2086514e-16</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>6.5970222e-13</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>1.1231548e-11</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>3.9077255e-21</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>1.1925814e-06</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.009737618999999999</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>5.412337e-06</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2.7818029e-07</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>3.4053989e-06</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>2.769958e-09</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>2.2875827e-07</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>8.411899800000001e-09</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.1469016e-10</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1.2669085e-08</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>2.4365666e-09</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>1.7357639e-08</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>8.6414364e-18</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>7.0757312e-14</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>6.8602812e-08</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>1.3860447e-06</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>1.5921566e-09</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>5.988995400000001e-14</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.12213434</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.00045471891</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.00019249617</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>1.4443591e-05</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>6.5011623e-12</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>7.6057615e-10</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>1.1396314e-05</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.00028357474</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.16105562</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.018319987</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.002630966514739999</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.00215769752916</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.0023315508014</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.0008024472529999999</v>
+      </c>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -568,18 +1880,297 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>A.040.03.101</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Materials, construction, bitumen  and asphalt</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Bitumen</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
+        <v>0.8873874655370001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.010967448773</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8067187862040001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.00136071356</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.068340517</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.019092391</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0076130975</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0096432901</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0010082303</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.5919653e-05</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.00027000872</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6.8737937e-06</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.00020621326</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.0011545003</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6.4239103e-06</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>0.4556034466666667</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="Z5" t="n">
+        <v>47.209177</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>46.995807</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.142813</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.031177016</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.039379859</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.016874218</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.013105571</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.00047197531</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.0032966719</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>7.8570568e-07</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.7454708e-09</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.46171876</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.228e-07</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.2756897e-09</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>3.4853664e-14</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2.5841496e-10</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.6255091e-07</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>5.8931217e-11</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>4.0389032e-10</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>1.5382381e-13</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>5.7317784e-12</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>1.0391645e-12</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>7.6382253e-12</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>8.872018399999999e-11</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>1.8966143e-05</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.46169979</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>7.774663e-05</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>2.7845419e-06</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1.2703433e-05</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>5.4509685e-09</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>3.1961698e-06</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>7.466071800000001e-08</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1.926714e-07</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>2.0241207e-06</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>5.6765582e-05</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>2.903341e-15</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.45560345</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.001905143</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.00051735882</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>6.9594206e-11</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>8.224668699999999e-09</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.00014156828</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>2.8250636</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>6.3673173</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.068340517</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.0376798110667</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.0267123622937</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.8067187862040001</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.00136071356</v>
+      </c>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -598,18 +2189,297 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>A.040.03.102</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Materials, construction, bitumen  and asphalt</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Asphalt</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>0.4514611877535409</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.019556581774</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.10012458439</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.07206020158954099</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.25971982</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.045657951</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.01426118</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.018119487</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.00025527449</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.8699484e-05</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0011431208</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.00096669657</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.036186777</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.039032236</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.035873365</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.00020652082</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.9589541e-08</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>1.731465466666667</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="Z6" t="n">
+        <v>21.29503</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21.078803</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.029633923</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.0014225241</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.17743163</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0077384161</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.038124738</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.03503148</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.001547242</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0015460163</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.1002086e-06</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>5.7220487e-09</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.21652889</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.6068004e-06</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>4.8481047e-09</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1.3245715e-13</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>7.7651573e-14</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>5.0928078e-10</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>4.9250212e-07</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>1.1598862e-10</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>7.5653289e-10</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>8.885544e-16</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>2.914084e-13</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>6.5118515e-13</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>2.9249205e-13</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>5.4053603e-14</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1.644656e-11</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>3.8027881e-10</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>7.4246784e-22</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.0061563833</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.21037251</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>8.885727e-05</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>6.6612357e-06</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>4.8277852e-05</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1.2005625e-07</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>3.4335183e-06</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>1.598261e-09</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>2.179113e-11</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>2.4071262e-09</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>1.0820533e-07</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>8.0972927e-07</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1.6418729e-18</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1.3443889e-14</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>3.7184626e-06</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>2.5697127e-05</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>2.705547e-08</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>1.1379091e-14</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>1.7314657</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.0037631905</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.0058970971</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.00081819192</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>2.9398859e-10</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>3.4846739e-08</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.00016970459</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.14659761</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>2.8868796</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.25971982</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.08044240934399999</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.06088588715954101</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.10012458439</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.07206014199999999</v>
+      </c>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -628,18 +2498,297 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>A.040.05.101</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, construction, bricks </t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Red Clay Brick, for housing and roads - packed</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
+        <v>0.04931703106368635</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.001178061051968</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.00649897001171835</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.04164</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.005191137</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0013078327</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0011780449</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.6151968e-08</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.1171835e-10</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>0.2776</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="Z7" t="n">
+        <v>4.03118</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>4.03118</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0064147103</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.0058701321</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.00025675189</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.00028782625</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>3.5192639e-07</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>9.4952621e-10</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.0403118</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.576128e-07</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>7.7728e-10</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>2.12364e-14</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>3.7587e-11</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>9.4276e-08</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.588059999999999e-12</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1.09816e-10</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.382091e-11</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.0403118</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>1.5660539e-05</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>7.5710468e-07</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>7.740224599999999e-06</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>3.6513686e-14</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>6.2365316e-07</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.3976893e-06</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>1.0687851e-11</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>2.7433574e-07</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>4.867521e-06</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.2776</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.0010245339</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.000518</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.0002559084</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>3.165555e-05</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.547632</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.04164</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.00767703106368635</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.00649897001171835</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.00649897001171835</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -658,18 +2807,297 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>A.040.05.102</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, construction, bricks </t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Concrete blocks - light  (439 kg/m3)</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
+        <v>0.0432686289791792</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.000487781908998</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.009295653070181199</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.033485194</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0080811185</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0012145262</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.00048769011</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.179899800000001e-08</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8.3701812e-09</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0.2232346266666667</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="Z8" t="n">
+        <v>3.2418132</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3.2418132</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.00635136</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.0059036877</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.00021620684</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.00023146546</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>3.5393811e-07</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>7.995815e-10</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.032418132</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2.0716173e-07</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6.2505695e-10</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1.7077449e-14</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1.5560364e-11</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>1.4676082e-07</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>3.5553075e-12</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1.7095216e-10</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.032418132</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>1.2457998e-05</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1.1785959e-06</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>6.2243737e-06</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>9.8045612e-13</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>9.7084994e-07</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>6.0743931e-11</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>1.6973099e-07</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>3.9143858e-06</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.22323462</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.00042413923</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.00080637813</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>8.3425968e-05</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>4.9278655e-05</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.44039727</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.033485194</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.009783434979179198</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.009295653070181199</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.009295653070181199</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW8" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -688,18 +3116,297 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>A.040.05.103</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, construction, bricks </t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Roof tiles</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
+        <v>0.05835496743198488</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0004323349675878</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.00377263246439708</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.05415</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0029312888</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.00084134355</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.00043232904</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5.9275878e-09</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.1439708e-10</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>0.361</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="Z9" t="n">
+        <v>5.242442</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5.242442</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.0071507434</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.0064761233</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.00030030974</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.00037431036</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>3.8825679e-07</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.1106129e-09</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.05242442</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.35008e-07</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.0108e-09</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>2.76165e-14</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1.3794e-11</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>5.3235e-08</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>3.15172e-12</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>6.201e-11</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.46236e-11</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.05242442</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>1.8184941e-05</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>4.2751568e-07</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>1.0065638e-05</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>1.3400106e-14</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>3.5215936e-07</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>8.9914932e-07</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>3.9223193e-12</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>1.1039344e-07</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>6.3300812e-06</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.00037599225</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.0002925</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.00016462877</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>1.7874997e-05</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.7121807999999999</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.05415</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.004204967431984881</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.00377263246439708</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.00377263246439708</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW9" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -718,18 +3425,297 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>A.040.05.104</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t xml:space="preserve">Materials, construction, bricks </t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Sand-lime bricks - light (600 kg/m3)</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
+        <v>0.0214284734702651</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00012413472658</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0012793387436851</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.020025</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.00100215</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.00027718683</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0001241136</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.112658e-08</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.9136851e-09</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>0.1335</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="Z10" t="n">
+        <v>1.938687</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.938687</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.0026155716</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.0023700939</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.00010705542</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.00013842225</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.4209196e-07</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>3.9591501e-10</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.01938687</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.23888e-07</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>3.738e-10</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.021275e-14</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>3.96e-12</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1.82e-08</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9.048e-13</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>2.12e-11</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.01938687</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>6.3630192e-06</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.4615921e-07</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>3.7223342e-06</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>2.2416292e-13</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.2039636e-07</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>1.3979581e-11</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>3.3212644e-08</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>2.3409026e-06</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.1335</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.00010794036</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>1.904e-05</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>6.11111e-06</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.2633688</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.020025</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.0014034734702651</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.0012793387436851</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.0012793387436851</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW10" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -748,18 +3734,297 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>A.040.07.101</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Materials, construction, concrete</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m3 </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Concrete</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
+        <v>65.550378676647</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.325146316</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.506378502299999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.276093858347</v>
+      </c>
+      <c r="K11" t="n">
+        <v>46.44276</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.8883174</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4.6694473</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.3041746</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.7145624900000001</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.013911196</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.29249803</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.92674271</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.5062883</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.017532014</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.76977315</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.0043390783</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3.2408347e-05</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>309.6184</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="Z11" t="n">
+        <v>1518.0958</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1466.5151</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2.4257521</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.5086538</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>14.775754</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>32.870522</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>6.5007274</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6.1304618</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.26360718</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.10665841</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.00036753368</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>9.7487863e-07</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>14.938153</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.00028732613</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>8.6693227e-07</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>2.3685828e-11</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>4.2231557e-11</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1.165449e-07</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>7.9886559e-05</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>2.6463262e-08</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>8.128392100000001e-08</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.8324888e-13</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>1.5079016e-12</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>1.6663293e-10</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>5.6098309e-12</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>1.2648463e-12</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>6.2970217e-09</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>1.9811296e-07</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>4.037983e-19</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.31024882</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>14.627904</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.013308859</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0.00056830296</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.008632982500000001</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.00011064805</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.0010795092</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>8.6922965e-07</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.1851316e-08</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>1.3091388e-06</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>3.3819201e-05</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0.00023159513</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>8.929484299999999e-16</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>7.3115889e-12</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0.00085866095</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0.0017908484</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>3.0235222e-07</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>6.1886286e-12</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>309.61851</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.055059655</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0.39594569</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.31588542</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>7.5825656e-08</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>9.0652856e-06</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0.040506345</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>4.7623983</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>200.64237</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>46.44276</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>14.809653726</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>9.484539818346999</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>9.506378502299999</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>4.27606145</v>
+      </c>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW11" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -778,18 +4043,297 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>A.040.07.102</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Materials, construction, concrete</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">m3 </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Concrete (reinforced 40 kg steel per 1000 kg)</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
+        <v>97.54614011921299</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.076194568</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15.3591666192</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7.545958932012999</v>
+      </c>
+      <c r="K12" t="n">
+        <v>67.56482</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.4235484</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6.0249488</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.0824216</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.69961399</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.013354748</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.28080423</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.88967317</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6.8069456</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.016830734</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.73898222</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.0041655152</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3.1112013e-05</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>450.4321333333334</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="Z12" t="n">
+        <v>3101.7854</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3052.268</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2.328722</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1.4483076</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14.184724</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>31.555701</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9.5566061</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8.940732799999999</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.39188768</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.22398562</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.00053601516</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.4492887e-06</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>31.370536</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.00041800126</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1.2612107e-06</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>3.4458078e-11</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>4.0542295e-11</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1.6621683e-07</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.00011765141</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>3.7801103e-08</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1.5003449e-07</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.6391893e-13</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>4.0973523e-11</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>1.5996762e-10</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>5.3854376e-12</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>1.2142524e-12</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>6.0451408e-09</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1.9018844e-07</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>3.8764637e-19</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.88361263</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>30.486923</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.020407376</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0.0012296983</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0.012559243</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0.00010695802</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0.0013072888</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>8.3446046e-07</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.1377264e-08</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>1.2567732e-06</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>3.2466433e-05</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0.00022458019</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>8.5723049e-16</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>7.0191254e-12</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0.0012184993</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0.0037237015</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>2.8374438e-06</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>5.9410835e-12</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>450.43224</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0.40484992</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>1.0221998</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0.38678049</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>7.279263e-08</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>8.702674099999999e-06</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0.05263955</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>4.5719023</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>418.13624</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>67.56482</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>22.414364938</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>15.338201482013</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>15.3591666192</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>7.545927819999999</v>
+      </c>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW12" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -808,18 +4352,297 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>A.040.09.101</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Materials, construction, insulation</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>cork slab insulation</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
+        <v>0.2753731968753</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.011099521632</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.101178601294</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0239032839493</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.13919179</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.024582589</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.011956032</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.009268162599999999</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0016301435</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.4666262e-05</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.00017654927</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.00026511535</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.00043986029</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.06434398700000001</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.02346152</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.0877944e-05</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.9036593e-06</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>0.9279452666666668</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="Z13" t="n">
+        <v>36.340984</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13.379673</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2.2418208</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>19.341761</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.9082252200000001</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.46950418</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.024741807</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.023200875</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.00090987834</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.00063105276</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1.3909398e-06</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>3.3649347e-09</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.08838274</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>8.6409044e-07</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>2.6072836e-09</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>7.1229865e-14</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>2.4806726e-12</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>6.8468945e-10</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>5.2577583e-07</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>1.1014497e-10</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>6.4718825e-10</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>1.382921e-13</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>4.0973786e-15</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>9.7372544e-14</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>6.0373406e-15</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>7.8744007e-16</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>3.0645471e-10</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>7.9881197e-11</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>2.3719025e-20</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>4.6833235e-05</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.08833590600000001</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>5.7728859e-05</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>4.7387713e-06</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>2.5873577e-05</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>4.2748259e-08</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>4.2434865e-06</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>3.7319757e-07</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>6.9614377e-10</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>1.0858607e-06</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>4.150291e-08</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>1.3060394e-07</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>5.2451598e-17</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>4.2948116e-13</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>2.0041854e-06</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>1.9184564e-05</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>9.664483e-09</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>3.6351871e-13</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0.9254951300000001</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0.013910667</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0.0032383372</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0.00026215312</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>6.565448600000001e-11</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>5.2114982e-09</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>6.3182615e-05</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0.0031545957</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>1.2791392</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0.13919179</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0.04790325798199999</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0.0368056400093</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0.101178601294</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0.02390138029</v>
+      </c>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW13" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -838,18 +4661,297 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>A.040.09.102</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Materials, construction, insulation</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>glasswool</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
+        <v>0.301227792</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0187884</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.096439392</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.073858455</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.022580937</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0187884</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>1.24</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="Z14" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.046692047</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.045157726</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.0015343212</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2.7072977e-06</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>5.6742647e-09</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.15072e-06</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>3.472e-09</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>9.486e-14</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>2.7937e-09</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>1.553784e-06</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>3.9603e-10</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1.796681e-09</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>9.458799999999999e-12</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>6.658406e-05</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1.3306624e-05</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>3.457449e-05</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>9.612445600000001e-06</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>1.8085894e-06</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>2.4611599e-07</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>2.7450495e-06</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>4.2907449e-06</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0.051715071</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0.009519</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0.0002378343</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0.00047256102</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0.115227792</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0.096439392</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0.096439392</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW14" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -868,18 +4970,297 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>A.040.09.103</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Materials, construction, insulation</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>stonewool</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
+        <v>0.2581334244140955</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.003113656390213</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.06472289802388247</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.19029687</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.061068516</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0036543812</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0031136137</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4.2690213e-08</v>
+      </c>
+      <c r="R15" t="n">
+        <v>8.238824599999999e-10</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>1.2686458</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="Z15" t="n">
+        <v>1.034375</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.034375</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.039494829</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.038138239</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.00135659</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>2.2864652e-06</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>5.0169748e-09</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1.1773033e-06</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>3.5522083e-09</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>9.7051406e-14</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>9.934375e-11</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>1.1090625e-06</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>2.2698542e-11</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1.291875e-09</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>1.5009583e-10</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>5.6695271e-05</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>8.906576599999999e-06</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>3.5373212e-05</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>9.6506944e-14</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>7.3366534e-06</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>3.905462e-06</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>2.8248362e-11</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>1.1733382e-06</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>1.2686458</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0.0027078788</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0.00609375</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0.0016164167</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0.00037239577</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0.19029687</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0.06783655441409547</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0.06472289802388247</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0.06472289802388247</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="inlineStr"/>
+      <c r="CR15" t="inlineStr"/>
+      <c r="CS15" t="inlineStr"/>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW15" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -898,18 +5279,297 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>A.040.11.101</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>Materials, construction, others</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Blastfurnace slags</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
+        <v>0.0007671004602</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5.264169959999999e-05</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.104131060000001e-05</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.00019791745</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0004455</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.4173315e-05</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3.1799842e-05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.88864e-05</v>
+      </c>
+      <c r="O16" t="n">
+        <v>9.5037e-06</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.6215156e-06</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.1630084e-05</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5.0681536e-06</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0001947</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3.21745e-06</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>0.00297</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="Z16" t="n">
+        <v>0.034751155</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.034751155</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>6.397501800000001e-05</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>5.888343e-05</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>2.4937235e-06</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>2.5978644e-06</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>3.5301817e-09</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>9.222350099999999e-12</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.00036384655</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>2.75616e-09</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8.316e-12</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>2.27205e-16</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>7.7408e-13</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>7.69693e-10</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1.76528e-13</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>7.2292e-13</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>6.6260137e-15</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>3.0915314e-17</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>1.796857e-17</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>4.16303e-13</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>3.1383e-12</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>1.6335e-05</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0.00034751155</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>1.6122022e-07</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>4.9840289e-09</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>8.2811481e-08</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>6.0980299e-10</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1.2612089e-08</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>4.0851759e-09</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>7.9117807e-09</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>5.8453213e-09</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>4.2360537e-08</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>2.7412422e-15</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0.00297</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>3.41e-06</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>2.1610033e-06</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>3.0078491e-12</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>3.534802e-10</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>4.4538885e-07</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>3.0469193e-05</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0.0047658727</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0.0004455</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0.0001236830102</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>7.425876060000001e-05</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>7.104131060000001e-05</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0.0001947</v>
+      </c>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr"/>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW16" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -928,18 +5588,297 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>A.040.11.102</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Materials, construction, others</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Clinker</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
+        <v>0.1355247580178</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.002322574686</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0033601878691</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0018494254627</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.12799257</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0013050152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.001877785</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0019780034</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.00026693637</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.0026277e-05</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4.7608639e-05</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.00016842161</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.00029551279</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5.7912202e-06</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0015502019</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.1748389e-06</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3.7107727e-06</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>0.8532838</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="Z17" t="n">
+        <v>5.0228714</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4.7674995</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.14890641</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.022818648</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.053233244</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.030413567</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.014657334</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.013673705</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.00065681871</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.0003268105</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>8.1976649e-07</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2.4290633e-09</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.045771779</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>7.918474200000001e-07</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>2.3891948e-09</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>6.527621499999999e-14</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1.3950037e-14</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>5.3366173e-11</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.7826455e-08</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1.2132115e-11</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>2.7642507e-11</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>1.5962802e-16</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>2.3673691e-18</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>2.712869e-14</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>1.0272327e-15</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>2.4666001e-16</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>4.3211297e-12</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>3.49073e-11</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.333837e-22</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>2.5245057e-05</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0.045746534</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>3.0875938e-05</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1.9073007e-07</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>2.3791816e-05</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>2.0679149e-08</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>3.9055154e-07</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>2.8712618e-10</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>3.9147574e-12</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>4.324381e-10</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>4.2778699e-08</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>4.0157929e-08</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2.9496103e-19</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>2.4151829e-15</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>3.9045992e-07</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>6.0079869e-06</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>5.4369736e-11</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>2.0442438e-15</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0.85328381</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>1.1898114e-05</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0.00013056878</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0.00012738875</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>1.2616203e-11</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>1.4793932e-09</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>1.4470877e-05</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0.00086622024</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0.62907799</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0.12799257</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0.005673796496</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0.0033549325827</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0.0033601878691</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0.00184571469</v>
+      </c>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr"/>
+      <c r="CS17" t="inlineStr"/>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW17" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -958,18 +5897,297 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>A.040.11.103</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Materials, construction, others</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Crushed concrete aggregate (recycled)</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
+        <v>0.00264413482923</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.00017876587758</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0003360619686</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.00062116028305</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0015081467</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.00015843685</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.00010340012</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.00010091839</v>
+      </c>
+      <c r="O18" t="n">
+        <v>6.0858638e-05</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.4891758e-07</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.6439932e-05</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.4681115e-05</v>
+      </c>
+      <c r="S18" t="n">
+        <v>9.996675e-05</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5.6554885e-05</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.00052108899</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.9889986e-06</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.0454305e-07</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>0.01005431133333333</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="Z18" t="n">
+        <v>0.14197459</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.13621901</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.00053431816</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.0024956564</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.0025896862</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.00013591856</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.00021349961</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.00019493286</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>8.7550248e-06</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9.811728600000001e-06</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.1686622e-08</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>3.237805e-11</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.0013741917</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>9.331212100000001e-09</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>2.8154488e-11</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>7.6922073e-16</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1.3623083e-13</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>6.2853641e-12</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.3422164e-09</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1.0626725e-12</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>3.1481375e-12</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1.5588674e-15</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>7.8879983e-16</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>9.366255799999999e-15</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>2.1392892e-16</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>5.5205666e-17</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>3.3349803e-13</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>6.4386933e-12</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.3025752e-21</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>1.6581919e-05</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0.0013576098</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>5.3402215e-07</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>2.7006754e-08</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>2.8034087e-07</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>1.7517433e-09</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.7201751e-08</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>2.8039666e-09</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>3.8230053e-11</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>4.2230284e-09</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>1.5464346e-09</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>1.1470281e-08</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>2.8804788e-18</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>2.3585771e-14</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>2.0313596e-08</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>1.6672445e-07</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>6.0101593e-10</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>1.9963318e-14</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0.010054677</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0.00012590679</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>2.2719554e-05</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>4.4966174e-06</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>4.2610764e-12</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>5.0176097e-10</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>7.7852526e-07</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0.00013246947</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0.018617288</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>0.0015081467</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0.00045528396258</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0.00027662262805</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0.0003360619686</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0.00062105574</v>
+      </c>
+      <c r="CP18" t="inlineStr"/>
+      <c r="CQ18" t="inlineStr"/>
+      <c r="CR18" t="inlineStr"/>
+      <c r="CS18" t="inlineStr"/>
+      <c r="CT18" t="inlineStr"/>
+      <c r="CU18" t="inlineStr"/>
+      <c r="CV18" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW18" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -988,18 +6206,297 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>A.040.11.104</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>Materials, construction, others</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Gravel</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
+        <v>0.00211003574354</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7.502005484e-05</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0002324930167</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.000534870572</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0012676521</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.00016065732</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5.7580035e-05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.8843034e-05</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.9022896e-06</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.2254324e-07</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.3852188e-05</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.172409e-05</v>
+      </c>
+      <c r="S19" t="n">
+        <v>9.5331852e-05</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.00043953872</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.5315717e-06</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>0.008451014</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="Z19" t="n">
+        <v>0.11135655</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.10891418</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.00023114945</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.0021491702</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>6.205622000000001e-05</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.00018033191</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.00016516791</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>7.2718795e-06</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>7.89212e-06</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>9.902152700000001e-09</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2.6893045e-11</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.0011053389</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>7.8425411e-09</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>2.3662839e-11</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>6.4650258e-16</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>1.6339045e-12</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.0532005e-09</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>3.7276535e-13</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>2.8480411e-12</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>7.65681e-16</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>7.891291499999999e-15</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>7.0754205e-17</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>2.5374922e-17</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1.9323369e-13</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>4.5840414e-12</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>1.619718e-05</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0.0010891418</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>4.318733e-07</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>2.3431169e-08</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>2.356367e-07</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>1.3987534e-09</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.5087612e-08</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>1.2489824e-09</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>9.638132999999999e-09</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>1.2302943e-08</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>1.3305872e-07</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>7.0297086e-11</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0.008451014099999999</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>9.714272599999999e-06</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>1.9550103e-05</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>3.5194995e-06</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>3.5620187e-12</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>4.2225902e-10</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>7.2683343e-07</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>6.4545271e-05</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0.014936801</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>0.0012676521</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0.00030498149984</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0.000229961445</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0.0002324930167</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0.000534870572</v>
+      </c>
+      <c r="CP19" t="inlineStr"/>
+      <c r="CQ19" t="inlineStr"/>
+      <c r="CR19" t="inlineStr"/>
+      <c r="CS19" t="inlineStr"/>
+      <c r="CT19" t="inlineStr"/>
+      <c r="CU19" t="inlineStr"/>
+      <c r="CV19" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW19" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1018,18 +6515,297 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>A.040.11.105</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Materials, construction, others</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Ground (earthmoving)</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
+        <v>5.744139136e-05</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.43131966e-06</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.00751818e-06</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.931795352e-05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.36846e-05</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.1805327e-06</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.2009687e-06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.20936e-07</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8.353632e-08</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.855538e-08</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>6.0829196e-07</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5.1484644e-07</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.624152e-08</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.9301712e-05</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.1117034e-07</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>0.000224564</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="Z20" t="n">
+        <v>0.0034906813</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.0033834279</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.0150597e-05</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>9.4377727e-05</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>2.7251099e-06</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>4.2789775e-06</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>3.8593255e-06</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1.7806555e-07</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2.4158648e-07</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2.3137443e-10</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>6.5852646e-13</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>3.3835642e-05</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2.0839539e-10</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>6.287792e-13</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.7179146e-17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1.93192e-14</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.2749933e-11</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>4.40572e-15</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>2.49736e-14</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>3.4653474e-16</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>3.1070694e-18</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.1143033e-18</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>8.485580399999999e-15</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>2.013016e-13</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>1.362636e-09</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>3.3834279e-05</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>1.1473348e-08</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.7217554e-10</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>6.2614402e-09</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>6.077077000000001e-11</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>2.1659862e-10</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>5.4847272e-11</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>4.2124675e-10</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>1.4898729e-10</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>4.1372814e-09</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>2.2866944e-19</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0.000224564</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>1.178e-07</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>8.161352600000001e-08</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>1.5642094e-13</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>1.8542899e-11</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>9.2820876e-09</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>2.834413e-06</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0.00046401297</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>3.36846e-05</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>4.3276675e-06</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>2.89634784e-06</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>3.00751818e-06</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>1.931795352e-05</v>
+      </c>
+      <c r="CP20" t="inlineStr"/>
+      <c r="CQ20" t="inlineStr"/>
+      <c r="CR20" t="inlineStr"/>
+      <c r="CS20" t="inlineStr"/>
+      <c r="CT20" t="inlineStr"/>
+      <c r="CU20" t="inlineStr"/>
+      <c r="CV20" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW20" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1048,18 +6824,297 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>A.040.11.106</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>Materials, construction, others</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Linoleum</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
+        <v>1.313290034522</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.04490201242</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.08318212780000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.399392104302</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.78581379</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.030472685</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.033189283</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.023199334</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.0087425757</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.00042652972</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.012533573</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.010946715</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.00095251573</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.0062907338</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.39842796</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.002282711</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.1628572e-05</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.2387586</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="Z21" t="n">
+        <v>81.754907</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>78.774467</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.50394129</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.32173061</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>2.037096</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.11767146</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.10151824</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.091754222</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.0042110307</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.0055529908</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>5.5008526e-06</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.5573338e-08</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.7777298</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.8621313e-06</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.4670239e-08</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>4.0081108e-13</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1.5153278e-11</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>1.1119639e-09</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>6.3310684e-07</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>2.0196704e-10</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>6.933108800000001e-10</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>1.7339651e-13</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>2.5715632e-15</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>7.1391065e-12</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>7.999084999999999e-14</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>2.6044408e-14</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1.9156225e-10</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>4.2958421e-09</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1.4488852e-19</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>8.034103399999999e-05</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0.77764946</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0.00027057156</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>4.9870233e-06</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0.00014607049</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>1.2938466e-06</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>5.8935192e-06</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>3.8964729e-07</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>4.2524194e-09</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>5.8775347e-07</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>1.1896534e-06</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>8.6973512e-06</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>3.2040248e-16</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>2.6235012e-12</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>4.7219206e-06</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>9.667706499999999e-05</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>5.903316e-08</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>2.2205672e-12</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>5.2384041</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>0.015150811</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0.0035103127</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0.001958306</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>3.2267604e-09</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>3.8212931e-07</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0.00024796941</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0.06587159400000001</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>10.664723</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>0.78581379</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0.11951069542</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0.074620311572</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0.08318212780000001</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0.39938047573</v>
+      </c>
+      <c r="CP21" t="inlineStr"/>
+      <c r="CQ21" t="inlineStr"/>
+      <c r="CR21" t="inlineStr"/>
+      <c r="CS21" t="inlineStr"/>
+      <c r="CT21" t="inlineStr"/>
+      <c r="CU21" t="inlineStr"/>
+      <c r="CV21" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW21" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1078,18 +7133,297 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>A.040.11.107</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>Materials, construction, others</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Plasticizers for concrete</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
+        <v>0.4058318831980689</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.003226997844196</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1206048853538729</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.02926278</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0055421045</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0032269536</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4.4244196e-08</v>
+      </c>
+      <c r="R22" t="n">
+        <v>8.5387293e-10</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.0858</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>1.88</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="Z22" t="n">
+        <v>36.3862</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>34.8762</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.041524627</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.037966732</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.001597174</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.0019607211</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.276183e-06</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>5.9067086e-09</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2746108</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.74464e-06</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>5.264e-09</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.4382e-13</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1.0296e-10</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>5.314400000000001e-07</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>2.35248e-11</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>6.1904e-10</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0.2746108</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0.00010131169</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>4.2678488e-06</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>5.2419388e-05</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>1.0001993e-13</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>3.5155738e-06</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>2.9276642e-11</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>8.9388925e-07</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>4.0214965e-05</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>0.0028064494</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>0.00292</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0.00037662156</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0.00017844441</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>4.713</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0.03803188319806893</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0.03480488535387293</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0.1206048853538729</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="inlineStr"/>
+      <c r="CQ22" t="inlineStr"/>
+      <c r="CR22" t="inlineStr"/>
+      <c r="CS22" t="inlineStr"/>
+      <c r="CT22" t="inlineStr"/>
+      <c r="CU22" t="inlineStr"/>
+      <c r="CV22" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW22" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1108,18 +7442,297 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>A.040.11.108</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>Materials, construction, others</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Sand</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
+        <v>0.001057596437997</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.9351773997e-05</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.000156273194</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.00018843597</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0006635355</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.00011720137</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.6042707e-05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.5914274e-05</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4.04208e-07</v>
+      </c>
+      <c r="P23" t="n">
+        <v>8.9784097e-08</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.9435079e-06</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.491196e-06</v>
+      </c>
+      <c r="S23" t="n">
+        <v>9.504058800000001e-05</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>9.3395382e-05</v>
+      </c>
+      <c r="V23" t="n">
+        <v>5.37921e-07</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>0.00442357</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="Z23" t="n">
+        <v>0.048757127</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.048238159</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>4.911579e-05</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.00045666642</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.3186015e-05</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>9.6713147e-05</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>8.9202572e-05</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>3.9508969e-06</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>3.5596779e-06</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>5.347876e-09</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.4611305e-11</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.00049855433</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.105073e-09</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1.2385996e-11</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>3.3840311e-16</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1.2874476e-12</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1.2405005e-09</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>2.9375626e-13</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1.9287516e-12</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>7.65681e-16</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>1.676781e-15</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>1.5034207e-17</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>5.3917902e-18</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>4.105926e-14</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>9.7404e-13</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>1.6172743e-05</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0.00048238159</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>2.1997234e-07</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1.7093309e-08</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>1.2334087e-07</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>3.0893315e-10</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>8.5259963e-09</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>2.6539002e-10</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>2.0837899e-09</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>9.420130299999999e-09</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>5.8863623e-08</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>7.0297082e-11</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0.00442357</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>9.714272599999999e-06</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>1.5213832e-05</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>2.0558999e-06</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>7.5687553e-13</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>8.9723706e-11</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>4.2448048e-07</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>1.3714902e-05</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>0.0066155189</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>0.0006635355</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0.000205087046997</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0.000155735273</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0.000156273194</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>0.00018843597</v>
+      </c>
+      <c r="CP23" t="inlineStr"/>
+      <c r="CQ23" t="inlineStr"/>
+      <c r="CR23" t="inlineStr"/>
+      <c r="CS23" t="inlineStr"/>
+      <c r="CT23" t="inlineStr"/>
+      <c r="CU23" t="inlineStr"/>
+      <c r="CV23" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW23" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1138,18 +7751,297 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>A.040.13.101</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>Materials, construction, paints</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Solvent based paint transparent - incl evaporation solvent</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
+        <v>3.70003535</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.87425</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.26445722</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.56132813</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.63965355</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.10256929</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.87425</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.52223438</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>3.742187533333334</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="Z24" t="n">
+        <v>96.29328099999999</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>96.29328099999999</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.26799376</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.25253009</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.0095893909</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.0058742799</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.5139694e-05</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>3.5463724e-08</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.82272828</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.47275e-06</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.0478125e-08</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>2.8627734e-13</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>5.0225e-08</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.1616719e-05</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.145375e-08</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.3531562e-08</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0.82272828</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0.00075511771</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>9.329068e-05</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0.00010434212</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>8.9230638e-07</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>7.6846741e-05</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>2.7219956e-06</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0.00036432886</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0.00011269501</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>3.7421875</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>0.063828125</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0.0069702412</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0.0039006069</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>13.033234</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>0.56132813</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>2.61647284</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>0.7422228400000001</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>1.26445722</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP24" t="inlineStr"/>
+      <c r="CQ24" t="inlineStr"/>
+      <c r="CR24" t="inlineStr"/>
+      <c r="CS24" t="inlineStr"/>
+      <c r="CT24" t="inlineStr"/>
+      <c r="CU24" t="inlineStr"/>
+      <c r="CV24" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW24" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1168,18 +8060,297 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>A.040.13.102</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Materials, construction, paints</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Solvent based paint white - incl evaporation solvent</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
+        <v>4.791905656395899</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.576553779869</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.0697984701269</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.4910333664</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.65452004</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.53942209</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.092834667</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.5754182</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.00092883073</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.00011054734</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>9.6201799e-05</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.00063493842</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.4894433</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.43690196</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.0015900664</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4.8147069e-06</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>4.363466933333333</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="Z25" t="n">
+        <v>98.83900800000001</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>98.55492</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.19752377</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.048386012</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.038177815</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.24722993</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.23189592</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.0089926578</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.006341349</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.3902633e-05</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>3.3256871e-08</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.88814412</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.0492973e-06</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.2217707e-08</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>3.3380522e-13</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>4.221709e-08</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>9.8109892e-06</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>9.627555799999999e-09</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1.1411214e-08</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>5.4829906e-14</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>3.8218921e-15</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>8.4238345e-16</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1.5244799e-11</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>1.1418361e-10</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0.019921059</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0.86822306</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0.00069205436</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>7.8672359e-05</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0.00012166504</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>8.2443422e-07</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>6.563650499999999e-05</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>1.5369523e-07</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>2.3734716e-06</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0.00030625662</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0.000116469</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>3.2459356e-09</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>4.3634669</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>0.053826482</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>0.0063087113</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>2.6190989e-11</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>3.0538223e-09</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>0.0033125584</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0.00320856</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>13.371592</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>0.65452004</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>2.209445475289</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>0.6328916954199999</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>1.0697984701269</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>1.4910333664</v>
+      </c>
+      <c r="CP25" t="inlineStr"/>
+      <c r="CQ25" t="inlineStr"/>
+      <c r="CR25" t="inlineStr"/>
+      <c r="CS25" t="inlineStr"/>
+      <c r="CT25" t="inlineStr"/>
+      <c r="CU25" t="inlineStr"/>
+      <c r="CV25" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW25" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1198,18 +8369,297 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>A.040.13.103</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>Materials, construction, paints</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Water based paint transparent</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
+        <v>0.799243721</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.19158261</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.268530681</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.33913043</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.22483017</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.043700511</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.19158261</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>2.260869533333334</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="Z26" t="n">
+        <v>39.65113</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>39.65113</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.10873195</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.10318834</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.0033144454</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.0022291651</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>6.1863513e-06</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.2257564e-08</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.312208</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>2.098087e-06</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>6.3304348e-09</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.7295652e-13</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>5.133913e-09</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>4.0831304e-06</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>1.1707826e-09</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>4.7561739e-09</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0.312208</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0.00020768107</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>3.27905e-05</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>6.3039042e-05</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>9.121002199999999e-08</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>2.7010662e-05</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>2.7823771e-07</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>3.8750591e-05</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>4.572083e-05</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>2.2608696</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>0.022434783</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>0.0029697302</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>0.0013710142</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>5.3582609</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>0.33913043</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>0.460113291</v>
+      </c>
+      <c r="CM26" t="n">
+        <v>0.268530681</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>0.268530681</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP26" t="inlineStr"/>
+      <c r="CQ26" t="inlineStr"/>
+      <c r="CR26" t="inlineStr"/>
+      <c r="CS26" t="inlineStr"/>
+      <c r="CT26" t="inlineStr"/>
+      <c r="CU26" t="inlineStr"/>
+      <c r="CV26" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW26" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -1228,18 +8678,297 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>A.040.13.104</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>Materials, construction, paints</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Water based paint white</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
+        <v>2.5105005837368</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.16671951657</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.2336405117668</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.6294865154</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.48065404</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.18936711</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.043574243</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.16547849</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.0010150793</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.00012081245</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.00010513482</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.00069389698</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.6277488</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.0017377154</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5.2617868e-06</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>3.204360266666667</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="Z27" t="n">
+        <v>52.532058</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>52.221591</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.21586527</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.052878998</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.041722898</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.11447876</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.10730631</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.0037828274</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.0033896268</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>6.4332318e-06</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.3989746e-08</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.47473764</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>2.9736463e-06</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>8.9722088e-09</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>2.4513356e-13</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>4.4343908e-09</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3.4550096e-06</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>1.0112574e-09</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>4.0059698e-09</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>5.9921254e-14</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>4.1767821e-15</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>9.206047799999999e-16</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1.6660388e-11</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>1.2478637e-10</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0.021770872</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0.45296677</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>0.0002365001</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>2.7618366e-05</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>8.9346067e-05</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>1.6008837e-07</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>2.3658775e-05</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>1.6796693e-07</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>3.3373603e-07</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>3.3424907e-05</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>6.178664500000001e-05</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>3.5473439e-09</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>3.2043603</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>0.018896084</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>0.0029611494</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>2.8623009e-11</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>3.3373915e-09</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>0.0011800742</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>0.0035064978</v>
+      </c>
+      <c r="CJ27" t="n">
+        <v>7.0964256</v>
+      </c>
+      <c r="CK27" t="n">
+        <v>0.48065404</v>
+      </c>
+      <c r="CL27" t="n">
+        <v>0.40035476655</v>
+      </c>
+      <c r="CM27" t="n">
+        <v>0.23363524998</v>
+      </c>
+      <c r="CN27" t="n">
+        <v>0.2336405117668</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>1.6294865154</v>
+      </c>
+      <c r="CP27" t="inlineStr"/>
+      <c r="CQ27" t="inlineStr"/>
+      <c r="CR27" t="inlineStr"/>
+      <c r="CS27" t="inlineStr"/>
+      <c r="CT27" t="inlineStr"/>
+      <c r="CU27" t="inlineStr"/>
+      <c r="CV27" t="inlineStr">
+        <is>
+          <t>building materials.xlsx</t>
+        </is>
+      </c>
+      <c r="CW27" t="inlineStr">
         <is>
           <t>Global</t>
         </is>

--- a/Data_processed/industry/building materials.xlsx
+++ b/Data_processed/industry/building materials.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/building materials.xlsx
+++ b/Data_processed/industry/building materials.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/building materials.xlsx
+++ b/Data_processed/industry/building materials.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.0748848021196</v>
+        <v>0.40912154</v>
       </c>
       <c r="E2" t="n">
-        <v>0.40912154</v>
+        <v>3.5739869</v>
       </c>
       <c r="F2" t="n">
-        <v>3.5739869</v>
+        <v>1.1407394e-05</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.189298489804</v>
+        <v>0.9029999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9029999999999999</v>
+        <v>4.0130628</v>
       </c>
       <c r="F3" t="n">
-        <v>4.0130628</v>
+        <v>2.5178036e-05</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0219278812983</v>
+        <v>0.1221332466666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1221332466666667</v>
+        <v>1.3685633</v>
       </c>
       <c r="F4" t="n">
-        <v>1.3685633</v>
+        <v>3.4053989e-06</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8873874655370001</v>
+        <v>0.4556034466666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4556034466666667</v>
+        <v>47.209177</v>
       </c>
       <c r="F5" t="n">
-        <v>47.209177</v>
+        <v>1.2703433e-05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4514611877535409</v>
+        <v>1.731465466666667</v>
       </c>
       <c r="E6" t="n">
-        <v>1.731465466666667</v>
+        <v>21.29503</v>
       </c>
       <c r="F6" t="n">
-        <v>21.29503</v>
+        <v>4.8277852e-05</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.04931703106368635</v>
+        <v>0.2776</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2776</v>
+        <v>4.03118</v>
       </c>
       <c r="F7" t="n">
-        <v>4.03118</v>
+        <v>7.740224599999999e-06</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.0432686289791792</v>
+        <v>0.2232346266666667</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2232346266666667</v>
+        <v>3.2418132</v>
       </c>
       <c r="F8" t="n">
-        <v>3.2418132</v>
+        <v>6.2243737e-06</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.05835496743198488</v>
+        <v>0.361</v>
       </c>
       <c r="E9" t="n">
-        <v>0.361</v>
+        <v>5.242442</v>
       </c>
       <c r="F9" t="n">
-        <v>5.242442</v>
+        <v>1.0065638e-05</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.0214284734702651</v>
+        <v>0.1335</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1335</v>
+        <v>1.938687</v>
       </c>
       <c r="F10" t="n">
-        <v>1.938687</v>
+        <v>3.7223342e-06</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>65.550378676647</v>
+        <v>309.6184</v>
       </c>
       <c r="E11" t="n">
-        <v>309.6184</v>
+        <v>1518.0958</v>
       </c>
       <c r="F11" t="n">
-        <v>1518.0958</v>
+        <v>0.008632982500000001</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>97.54614011921299</v>
+        <v>450.4321333333334</v>
       </c>
       <c r="E12" t="n">
-        <v>450.4321333333334</v>
+        <v>3101.7854</v>
       </c>
       <c r="F12" t="n">
-        <v>3101.7854</v>
+        <v>0.012559243</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.2753731968753</v>
+        <v>0.9279452666666668</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9279452666666668</v>
+        <v>36.340984</v>
       </c>
       <c r="F13" t="n">
-        <v>36.340984</v>
+        <v>2.5873577e-05</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.301227792</v>
+        <v>1.24</v>
       </c>
       <c r="E14" t="n">
-        <v>1.24</v>
+        <v>4.72</v>
       </c>
       <c r="F14" t="n">
-        <v>4.72</v>
+        <v>3.457449e-05</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2581334244140955</v>
+        <v>1.2686458</v>
       </c>
       <c r="E15" t="n">
-        <v>1.2686458</v>
+        <v>1.034375</v>
       </c>
       <c r="F15" t="n">
-        <v>1.034375</v>
+        <v>3.5373212e-05</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.0007671004602</v>
+        <v>0.00297</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00297</v>
+        <v>0.034751155</v>
       </c>
       <c r="F16" t="n">
-        <v>0.034751155</v>
+        <v>8.2811481e-08</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.1355247580178</v>
+        <v>0.8532838</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8532838</v>
+        <v>5.0228714</v>
       </c>
       <c r="F17" t="n">
-        <v>5.0228714</v>
+        <v>2.3791816e-05</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.00264413482923</v>
+        <v>0.01005431133333333</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01005431133333333</v>
+        <v>0.14197459</v>
       </c>
       <c r="F18" t="n">
-        <v>0.14197459</v>
+        <v>2.8034087e-07</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.00211003574354</v>
+        <v>0.008451014</v>
       </c>
       <c r="E19" t="n">
-        <v>0.008451014</v>
+        <v>0.11135655</v>
       </c>
       <c r="F19" t="n">
-        <v>0.11135655</v>
+        <v>2.356367e-07</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5.744139136e-05</v>
+        <v>0.000224564</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000224564</v>
+        <v>0.0034906813</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0034906813</v>
+        <v>6.2614402e-09</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.313290034522</v>
+        <v>5.2387586</v>
       </c>
       <c r="E21" t="n">
-        <v>5.2387586</v>
+        <v>81.754907</v>
       </c>
       <c r="F21" t="n">
-        <v>81.754907</v>
+        <v>0.00014607049</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.4058318831980689</v>
+        <v>1.88</v>
       </c>
       <c r="E22" t="n">
-        <v>1.88</v>
+        <v>36.3862</v>
       </c>
       <c r="F22" t="n">
-        <v>36.3862</v>
+        <v>5.2419388e-05</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.001057596437997</v>
+        <v>0.00442357</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00442357</v>
+        <v>0.048757127</v>
       </c>
       <c r="F23" t="n">
-        <v>0.048757127</v>
+        <v>1.2334087e-07</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3.70003535</v>
+        <v>3.742187533333334</v>
       </c>
       <c r="E24" t="n">
-        <v>3.742187533333334</v>
+        <v>96.29328099999999</v>
       </c>
       <c r="F24" t="n">
-        <v>96.29328099999999</v>
+        <v>0.00010434212</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4.791905656395899</v>
+        <v>4.363466933333333</v>
       </c>
       <c r="E25" t="n">
-        <v>4.363466933333333</v>
+        <v>98.83900800000001</v>
       </c>
       <c r="F25" t="n">
-        <v>98.83900800000001</v>
+        <v>0.00012166504</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.799243721</v>
+        <v>2.260869533333334</v>
       </c>
       <c r="E26" t="n">
-        <v>2.260869533333334</v>
+        <v>39.65113</v>
       </c>
       <c r="F26" t="n">
-        <v>39.65113</v>
+        <v>6.3039042e-05</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2.5105005837368</v>
+        <v>3.204360266666667</v>
       </c>
       <c r="E27" t="n">
-        <v>3.204360266666667</v>
+        <v>52.532058</v>
       </c>
       <c r="F27" t="n">
-        <v>52.532058</v>
+        <v>8.9346067e-05</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1278,5 +1323,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>